--- a/Phân công dữ liệu lớn và ứng dụng.xlsx
+++ b/Phân công dữ liệu lớn và ứng dụng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49442b27d7fd2a9a/Tài liệu/GitHub/DuLieuLonVaUngDung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D7760-07BD-4DA9-968D-AE3811FCBDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{382D7760-07BD-4DA9-968D-AE3811FCBDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B563EE-364B-4179-B287-819E8BDC88E5}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17292" windowHeight="8964" xr2:uid="{BA1F5017-68A0-4D66-BDE9-7142300E1A5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA1F5017-68A0-4D66-BDE9-7142300E1A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,21 +422,21 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="13.8984375" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -469,11 +469,8 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -487,11 +484,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
